--- a/Graphs/ar5_10_シフト解析.xlsx
+++ b/Graphs/ar5_10_シフト解析.xlsx
@@ -2217,8 +2217,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1263007216"/>
-        <c:axId val="1263009568"/>
+        <c:axId val="426019712"/>
+        <c:axId val="426017752"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -17149,7 +17149,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1263007216"/>
+        <c:axId val="426019712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17205,12 +17205,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1263009568"/>
+        <c:crossAx val="426017752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1263009568"/>
+        <c:axId val="426017752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17267,7 +17267,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1263007216"/>
+        <c:crossAx val="426019712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17908,16 +17908,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18204,8 +18204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
